--- a/00Consolidado Tablas Madre (Copia en conflicto de Silvia Valdes 2021-05-07).xlsx
+++ b/00Consolidado Tablas Madre (Copia en conflicto de Silvia Valdes 2021-05-07).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210F08E2-C30B-4F3F-9C66-7F8B63E87DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A5A94B-187D-471E-9CD4-42FDF802CC7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -1063,15 +1063,9 @@
     <t>17.10</t>
   </si>
   <si>
-    <t>Importaciones_toneladas_acumuladas</t>
-  </si>
-  <si>
     <t>Importaciones de carne aculumado en toneladas</t>
   </si>
   <si>
-    <t>Expertaciones_tonaledas_acumulado</t>
-  </si>
-  <si>
     <t>Exportaciones de carne aculumado en toneladas</t>
   </si>
   <si>
@@ -1195,12 +1189,6 @@
     <t>https://www.dropbox.com/s/5lpe3vunjw4qloc/18.4.xlsx?dl=0</t>
   </si>
   <si>
-    <t>numero_de_cabezas_faena_bovino_matadero</t>
-  </si>
-  <si>
-    <t>Faena_bovinos_matadero_cantidad_cabezas_por_año</t>
-  </si>
-  <si>
     <t>faena_bovino_matadero_tonelada_carne_vara</t>
   </si>
   <si>
@@ -1361,6 +1349,18 @@
   </si>
   <si>
     <t>Importaciones semanales de carne bovina (toneladas)</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_acumuladas_en_toneladas</t>
+  </si>
+  <si>
+    <t>Exportaciones_carne_acumulado_enero_en_tonaledas</t>
+  </si>
+  <si>
+    <t>faena_bovino_en_matadero_numero_animales</t>
+  </si>
+  <si>
+    <t>Faena_bovinos_matadero_cantidad_animales_por_año</t>
   </si>
 </sst>
 </file>
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,13 +4050,13 @@
         <v>15.1</v>
       </c>
       <c r="B73" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73" t="s">
+        <v>359</v>
+      </c>
+      <c r="D73" t="s">
         <v>360</v>
-      </c>
-      <c r="C73" t="s">
-        <v>361</v>
-      </c>
-      <c r="D73" t="s">
-        <v>362</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
@@ -4149,7 +4149,7 @@
         <v>319</v>
       </c>
       <c r="C76" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D76" t="s">
         <v>245</v>
@@ -4181,7 +4181,7 @@
         <v>323</v>
       </c>
       <c r="C77" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D77" t="s">
         <v>324</v>
@@ -4213,7 +4213,7 @@
         <v>326</v>
       </c>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
@@ -4245,7 +4245,7 @@
         <v>329</v>
       </c>
       <c r="C79" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D79" t="s">
         <v>21</v>
@@ -4306,10 +4306,10 @@
         <v>339</v>
       </c>
       <c r="B81" t="s">
+        <v>441</v>
+      </c>
+      <c r="C81" t="s">
         <v>345</v>
-      </c>
-      <c r="C81" t="s">
-        <v>346</v>
       </c>
       <c r="D81" t="s">
         <v>47</v>
@@ -4338,10 +4338,10 @@
         <v>340</v>
       </c>
       <c r="B82" t="s">
-        <v>347</v>
+        <v>442</v>
       </c>
       <c r="C82" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D82" t="s">
         <v>47</v>
@@ -4370,10 +4370,10 @@
         <v>341</v>
       </c>
       <c r="B83" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D83" t="s">
         <v>21</v>
@@ -4402,10 +4402,10 @@
         <v>342</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -4434,10 +4434,10 @@
         <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C85" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D85" t="s">
         <v>47</v>
@@ -4466,10 +4466,10 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D86" t="s">
         <v>47</v>
@@ -4495,13 +4495,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C87" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D87" t="s">
         <v>47</v>
@@ -4513,10 +4513,10 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" t="s">
@@ -4525,13 +4525,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D88" t="s">
         <v>47</v>
@@ -4543,10 +4543,10 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
+        <v>355</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" t="s">
@@ -4555,19 +4555,19 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E89" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -4576,10 +4576,10 @@
         <v>295</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J89" t="s">
         <v>76</v>
@@ -4587,19 +4587,19 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B90" t="s">
+        <v>372</v>
+      </c>
+      <c r="C90" t="s">
+        <v>380</v>
+      </c>
+      <c r="D90" t="s">
         <v>374</v>
       </c>
-      <c r="C90" t="s">
-        <v>382</v>
-      </c>
-      <c r="D90" t="s">
-        <v>376</v>
-      </c>
       <c r="E90" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -4608,10 +4608,10 @@
         <v>295</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J90" t="s">
         <v>76</v>
@@ -4619,19 +4619,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B91" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" t="s">
+        <v>381</v>
+      </c>
+      <c r="D91" t="s">
+        <v>374</v>
+      </c>
+      <c r="E91" t="s">
         <v>375</v>
-      </c>
-      <c r="C91" t="s">
-        <v>383</v>
-      </c>
-      <c r="D91" t="s">
-        <v>376</v>
-      </c>
-      <c r="E91" t="s">
-        <v>377</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -4640,10 +4640,10 @@
         <v>295</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J91" t="s">
         <v>76</v>
@@ -4654,13 +4654,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="B92" t="s">
+        <v>382</v>
+      </c>
+      <c r="C92" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" t="s">
         <v>384</v>
-      </c>
-      <c r="C92" t="s">
-        <v>385</v>
-      </c>
-      <c r="D92" t="s">
-        <v>386</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
@@ -4672,10 +4672,10 @@
         <v>320</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J92" t="s">
         <v>160</v>
@@ -4683,16 +4683,16 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B93" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D93" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E93" t="s">
         <v>48</v>
@@ -4715,16 +4715,16 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B94" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D94" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E94" t="s">
         <v>48</v>
@@ -4747,16 +4747,16 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B95" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C95" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D95" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E95" t="s">
         <v>48</v>
@@ -4779,16 +4779,16 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B96" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C96" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D96" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E96" t="s">
         <v>48</v>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97" t="s">
+        <v>404</v>
+      </c>
+      <c r="C97" t="s">
         <v>406</v>
-      </c>
-      <c r="B97" t="s">
-        <v>408</v>
-      </c>
-      <c r="C97" t="s">
-        <v>410</v>
       </c>
       <c r="D97" t="s">
         <v>47</v>
@@ -4843,13 +4843,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B98" t="s">
+        <v>405</v>
+      </c>
+      <c r="C98" t="s">
         <v>407</v>
-      </c>
-      <c r="B98" t="s">
-        <v>409</v>
-      </c>
-      <c r="C98" t="s">
-        <v>411</v>
       </c>
       <c r="D98" t="s">
         <v>53</v>
@@ -4875,13 +4875,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B99" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D99" t="s">
         <v>47</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C100" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D100" t="s">
         <v>53</v>
@@ -4939,13 +4939,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" t="s">
+        <v>415</v>
+      </c>
+      <c r="C101" t="s">
         <v>418</v>
-      </c>
-      <c r="B101" t="s">
-        <v>419</v>
-      </c>
-      <c r="C101" t="s">
-        <v>422</v>
       </c>
       <c r="D101" t="s">
         <v>53</v>
@@ -4971,13 +4971,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B102" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C102" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D102" t="s">
         <v>47</v>
@@ -5003,13 +5003,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B103" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C103" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D103" t="s">
         <v>47</v>
@@ -5035,13 +5035,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C104" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D104" t="s">
         <v>60</v>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B105" t="s">
+        <v>429</v>
+      </c>
+      <c r="C105" t="s">
         <v>430</v>
-      </c>
-      <c r="B105" t="s">
-        <v>433</v>
-      </c>
-      <c r="C105" t="s">
-        <v>434</v>
       </c>
       <c r="D105" t="s">
         <v>47</v>
@@ -5099,13 +5099,13 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B106" t="s">
+        <v>428</v>
+      </c>
+      <c r="C106" t="s">
         <v>431</v>
-      </c>
-      <c r="B106" t="s">
-        <v>432</v>
-      </c>
-      <c r="C106" t="s">
-        <v>435</v>
       </c>
       <c r="D106" t="s">
         <v>60</v>
@@ -5131,13 +5131,13 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B107" t="s">
+        <v>433</v>
+      </c>
+      <c r="C107" t="s">
         <v>437</v>
-      </c>
-      <c r="C107" t="s">
-        <v>441</v>
       </c>
       <c r="D107" t="s">
         <v>47</v>
@@ -5163,13 +5163,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B108" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C108" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D108" t="s">
         <v>60</v>
@@ -5195,13 +5195,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B109" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C109" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D109" t="s">
         <v>47</v>
